--- a/Output/Chapman_1992 Chapman 1992 OS DTIC_non_IFN parameters.xlsx
+++ b/Output/Chapman_1992 Chapman 1992 OS DTIC_non_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.61351770303824</v>
+        <v>-2.56891849151363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0912646059721666</v>
+        <v>0.0953207574839895</v>
       </c>
       <c r="D2" t="n">
         <v>835.796913299142</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0447916602245716</v>
+        <v>-0.0434775808987697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0750187544228287</v>
+        <v>0.101936547928577</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.37960527088054</v>
+        <v>2.3420142874128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179786460979122</v>
+        <v>0.215810175558297</v>
       </c>
       <c r="D2" t="n">
         <v>788.502406492021</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.07901445539707</v>
+        <v>-1.08629849598012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10031066104669</v>
+        <v>0.13211005024603</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.12776853505119</v>
+        <v>-2.08438385665272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0802505639146212</v>
+        <v>0.0833283834066869</v>
       </c>
       <c r="D2" t="n">
         <v>780.055029655378</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.98880947565455</v>
+        <v>2.00821523370502</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20637586173419</v>
+        <v>0.264693199286976</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.30353901599517</v>
+        <v>-2.25929198323504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0849990247310865</v>
+        <v>0.08253900642319</v>
       </c>
       <c r="D2" t="n">
         <v>812.955386873763</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0295289955002821</v>
+        <v>-0.0299328683024798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00740228834920616</v>
+        <v>0.0095122801950541</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00832922830325483</v>
+        <v>0.00908604680732155</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00329069460677465</v>
+        <v>-0.00562530671538125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00329069460677465</v>
+        <v>-0.00562530671538125</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00562781351515267</v>
+        <v>0.0103910598035951</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0323231715513972</v>
+        <v>0.0465740318745031</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0162601111896603</v>
+        <v>-0.0269241863120591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0162601111896603</v>
+        <v>-0.0269241863120591</v>
       </c>
       <c r="B3" t="n">
-        <v>0.010062228719624</v>
+        <v>0.0174530653760086</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0064401530086147</v>
+        <v>0.00694361948117181</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00833438912926197</v>
+        <v>0.01381622202849</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00833438912926197</v>
+        <v>0.01381622202849</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0425909963065297</v>
+        <v>0.0700624897487748</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00722483420523586</v>
+        <v>0.0068126875813274</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000207469315286281</v>
+        <v>-0.000146717072827743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000207469315286281</v>
+        <v>-0.000146717072827743</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000547938728047933</v>
+        <v>0.0000904834745092185</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Chapman_1992 Chapman 1992 OS DTIC_non_IFN parameters.xlsx
+++ b/Output/Chapman_1992 Chapman 1992 OS DTIC_non_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.56891849151363</v>
+        <v>-2.61351770303824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0953207574839895</v>
+        <v>0.0912646059721666</v>
       </c>
       <c r="D2" t="n">
         <v>835.796913299142</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0434775808987697</v>
+        <v>-0.0447916602245716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.101936547928577</v>
+        <v>0.0750187544228287</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.3420142874128</v>
+        <v>2.37960527088054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215810175558297</v>
+        <v>0.179786460979122</v>
       </c>
       <c r="D2" t="n">
         <v>788.502406492021</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.08629849598012</v>
+        <v>-1.07901445539707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.13211005024603</v>
+        <v>0.10031066104669</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.08438385665272</v>
+        <v>-2.12776853505119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0833283834066869</v>
+        <v>0.0802505639146212</v>
       </c>
       <c r="D2" t="n">
         <v>780.055029655378</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.00821523370502</v>
+        <v>0.682229582156072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264693199286976</v>
+        <v>0.102850940330416</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.25929198323504</v>
+        <v>-2.30353901599517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08253900642319</v>
+        <v>0.0849990247310865</v>
       </c>
       <c r="D2" t="n">
         <v>812.955386873763</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0299328683024798</v>
+        <v>-0.0295289955002821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0095122801950541</v>
+        <v>0.00740228834920616</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00908604680732155</v>
+        <v>0.00832922830325483</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00562530671538125</v>
+        <v>-0.00329069460677465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00562530671538125</v>
+        <v>-0.00329069460677465</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0103910598035951</v>
+        <v>0.00562781351515267</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0465740318745031</v>
+        <v>0.0323231715513972</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0269241863120591</v>
+        <v>-0.0162601111896603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0269241863120591</v>
+        <v>-0.0162601111896603</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0174530653760086</v>
+        <v>0.010062228719624</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00694361948117181</v>
+        <v>0.0064401530086147</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01381622202849</v>
+        <v>0.00421831753931453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01381622202849</v>
+        <v>0.00421831753931453</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0700624897487748</v>
+        <v>0.0105783159268507</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0068126875813274</v>
+        <v>0.00722483420523586</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000146717072827743</v>
+        <v>-0.000207469315286281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000146717072827743</v>
+        <v>-0.000207469315286281</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000904834745092185</v>
+        <v>0.0000547938728047933</v>
       </c>
     </row>
   </sheetData>
